--- a/aa.xlsx
+++ b/aa.xlsx
@@ -1995,7 +1995,7 @@
     <t>黑色星期五促销活动有哪些优惠？</t>
   </si>
   <si>
-    <t/>
+    <t>无</t>
   </si>
   <si>
     <t>会员积分/忠诚计划：如何查看和兑换我的积分？</t>
@@ -3023,8 +3023,8 @@
   <sheetPr/>
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="F140" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" ht="165" spans="1:3">
+    <row r="128" ht="120" spans="1:3">
       <c r="A128" s="3" t="s">
         <v>253</v>
       </c>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" ht="90" spans="1:3">
+    <row r="129" ht="60" spans="1:3">
       <c r="A129" s="3" t="s">
         <v>255</v>
       </c>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" ht="105" spans="1:3">
+    <row r="130" ht="75" spans="1:3">
       <c r="A130" s="3" t="s">
         <v>257</v>
       </c>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" ht="90" spans="1:3">
+    <row r="131" ht="60" spans="1:3">
       <c r="A131" s="3" t="s">
         <v>259</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" ht="90" spans="1:3">
+    <row r="132" ht="60" spans="1:3">
       <c r="A132" s="3" t="s">
         <v>261</v>
       </c>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" ht="195" spans="1:3">
+    <row r="133" ht="150" spans="1:3">
       <c r="A133" s="3" t="s">
         <v>263</v>
       </c>
@@ -4230,7 +4230,7 @@
       </c>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" ht="300" spans="1:3">
+    <row r="134" ht="165" spans="1:3">
       <c r="A134" s="3" t="s">
         <v>265</v>
       </c>
@@ -4239,7 +4239,7 @@
       </c>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" ht="240" spans="1:3">
+    <row r="135" ht="135" spans="1:3">
       <c r="A135" s="3" t="s">
         <v>267</v>
       </c>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" ht="210" spans="1:3">
+    <row r="136" ht="120" spans="1:3">
       <c r="A136" s="3" t="s">
         <v>269</v>
       </c>
@@ -4257,7 +4257,7 @@
       </c>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" ht="210" spans="1:3">
+    <row r="137" ht="120" spans="1:3">
       <c r="A137" s="3" t="s">
         <v>271</v>
       </c>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" ht="195" spans="1:3">
+    <row r="138" ht="135" spans="1:3">
       <c r="A138" s="3" t="s">
         <v>273</v>
       </c>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" ht="255" spans="1:3">
+    <row r="140" ht="150" spans="1:3">
       <c r="A140" s="3" t="s">
         <v>277</v>
       </c>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" ht="135" spans="1:3">
+    <row r="141" ht="90" spans="1:3">
       <c r="A141" s="3" t="s">
         <v>279</v>
       </c>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" ht="105" spans="1:3">
+    <row r="142" ht="75" spans="1:3">
       <c r="A142" s="3" t="s">
         <v>281</v>
       </c>
